--- a/stock_historical_data/1wk/ASTRAMICRO.NS.xlsx
+++ b/stock_historical_data/1wk/ASTRAMICRO.NS.xlsx
@@ -54739,7 +54739,9 @@
       <c r="P1024" t="n">
         <v>0</v>
       </c>
-      <c r="Q1024" t="inlineStr"/>
+      <c r="Q1024" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ASTRAMICRO.NS.xlsx
+++ b/stock_historical_data/1wk/ASTRAMICRO.NS.xlsx
@@ -57869,7 +57869,9 @@
       <c r="Q1025" t="n">
         <v>0</v>
       </c>
-      <c r="R1025" t="inlineStr"/>
+      <c r="R1025" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ASTRAMICRO.NS.xlsx
+++ b/stock_historical_data/1wk/ASTRAMICRO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1025"/>
+  <dimension ref="A1:R1027"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -57872,6 +57872,114 @@
       <c r="R1025" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>965.4000244140625</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>1059</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>960.0499877929688</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>967</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>967</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>5918060</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1026" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>965.25</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>989.5</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>944.5999755859375</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>949.25</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>949.25</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>1942019</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1027" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1027" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ASTRAMICRO.NS.xlsx
+++ b/stock_historical_data/1wk/ASTRAMICRO.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1027"/>
+  <dimension ref="A1:R1062"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -57917,7 +57917,7 @@
         <v>25</v>
       </c>
       <c r="O1026" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1026" t="n">
         <v>0</v>
@@ -57925,7 +57925,9 @@
       <c r="Q1026" t="n">
         <v>0</v>
       </c>
-      <c r="R1026" t="inlineStr"/>
+      <c r="R1026" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
@@ -57979,7 +57981,1829 @@
       <c r="Q1027" t="n">
         <v>0</v>
       </c>
-      <c r="R1027" t="inlineStr"/>
+      <c r="R1027" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>945.8496082012201</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>976.2804236549514</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>926.8927067710268</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>951.48681640625</v>
+      </c>
+      <c r="F1028" t="inlineStr"/>
+      <c r="G1028" t="n">
+        <v>4904063</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1028" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>956.8246596287789</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>972.5888076393589</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>893.967565200611</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>914.5208129882812</v>
+      </c>
+      <c r="F1029" t="inlineStr"/>
+      <c r="G1029" t="n">
+        <v>3216062</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1029" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>917.9130980291359</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>941.1103583869375</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>888.9788808086523</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>894.6160888671875</v>
+      </c>
+      <c r="F1030" t="inlineStr"/>
+      <c r="G1030" t="n">
+        <v>1837635</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1030" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>889.9765994670873</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>916.3666128301777</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>855.1058673871021</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>891.5230712890625</v>
+      </c>
+      <c r="F1031" t="inlineStr"/>
+      <c r="G1031" t="n">
+        <v>2335276</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1031" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>895.9629956350888</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>931.4323425813907</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>871.1194539141419</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>877.0559692382812</v>
+      </c>
+      <c r="F1032" t="inlineStr"/>
+      <c r="G1032" t="n">
+        <v>1540711</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1032" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1032" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>844.0809716652808</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>856.3530587193709</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>808.1626324454817</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>827.6682739257812</v>
+      </c>
+      <c r="F1033" t="inlineStr"/>
+      <c r="G1033" t="n">
+        <v>1912013</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1033" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>823.1285769065252</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>879.9992785837032</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>804.6705421516515</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>875.3598022460938</v>
+      </c>
+      <c r="F1034" t="inlineStr"/>
+      <c r="G1034" t="n">
+        <v>2172768</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1034" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1034" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>884.9879337175909</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>897.8586957819738</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>859.1965960846156</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>879.6001586914062</v>
+      </c>
+      <c r="F1035" t="inlineStr"/>
+      <c r="G1035" t="n">
+        <v>1190917</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1035" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>885.25</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>910</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>860</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>904.5999755859375</v>
+      </c>
+      <c r="F1036" t="inlineStr"/>
+      <c r="G1036" t="n">
+        <v>1908806</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1036" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1036" t="inlineStr"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>910.9000244140625</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>910.9000244140625</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>856.4500122070312</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>866.5999755859375</v>
+      </c>
+      <c r="F1037" t="inlineStr"/>
+      <c r="G1037" t="n">
+        <v>1239223</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1037" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1037" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1037" t="inlineStr"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>866.8499755859375</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>943</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>847</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>920.7999877929688</v>
+      </c>
+      <c r="F1038" t="inlineStr"/>
+      <c r="G1038" t="n">
+        <v>2534310</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1038" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1038" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1038" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1038" t="inlineStr"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>925.4500122070312</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>932.9000244140625</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>848</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>916.0499877929688</v>
+      </c>
+      <c r="F1039" t="inlineStr"/>
+      <c r="G1039" t="n">
+        <v>3029080</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1039" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1039" t="inlineStr"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>921.4000244140625</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>929</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>832.9500122070312</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>847.75</v>
+      </c>
+      <c r="F1040" t="inlineStr"/>
+      <c r="G1040" t="n">
+        <v>952053</v>
+      </c>
+      <c r="H1040" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1040" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1040" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1040" t="inlineStr"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>841.0499877929688</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>884.9000244140625</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>815</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>843.3499755859375</v>
+      </c>
+      <c r="F1041" t="inlineStr"/>
+      <c r="G1041" t="n">
+        <v>1215949</v>
+      </c>
+      <c r="H1041" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1041" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1041" t="inlineStr"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>844.25</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>874.7999877929688</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>787</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>860.0999755859375</v>
+      </c>
+      <c r="F1042" t="inlineStr"/>
+      <c r="G1042" t="n">
+        <v>1044904</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1042" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1042" t="inlineStr"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>861.7999877929688</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>883.2999877929688</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>795</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>802.7999877929688</v>
+      </c>
+      <c r="F1043" t="inlineStr"/>
+      <c r="G1043" t="n">
+        <v>657570</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1043" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1043" t="inlineStr"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>802.7999877929688</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>805</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>718.0999755859375</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>729</v>
+      </c>
+      <c r="F1044" t="inlineStr"/>
+      <c r="G1044" t="n">
+        <v>1670061</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1044" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1044" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1044" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1044" t="inlineStr"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>720</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>817.75</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>718.4000244140625</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>801.7000122070312</v>
+      </c>
+      <c r="F1045" t="inlineStr"/>
+      <c r="G1045" t="n">
+        <v>658937</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1045" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1045" t="inlineStr"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>802</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>823</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>761</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>770.5499877929688</v>
+      </c>
+      <c r="F1046" t="inlineStr"/>
+      <c r="G1046" t="n">
+        <v>972769</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1046" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1046" t="inlineStr"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>770.5</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>814.9000244140625</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>733.1500244140625</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>752.0499877929688</v>
+      </c>
+      <c r="F1047" t="inlineStr"/>
+      <c r="G1047" t="n">
+        <v>1046907</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1047" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1047" t="inlineStr"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>747</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>767.6500244140625</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>736.5999755859375</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>748.75</v>
+      </c>
+      <c r="F1048" t="inlineStr"/>
+      <c r="G1048" t="n">
+        <v>535451</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1048" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1048" t="inlineStr"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>752.5499877929688</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>804</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>752.5499877929688</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>799.5499877929688</v>
+      </c>
+      <c r="F1049" t="inlineStr"/>
+      <c r="G1049" t="n">
+        <v>944085</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1049" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1049" t="inlineStr"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>800.0499877929688</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>830</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>785</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>796.9000244140625</v>
+      </c>
+      <c r="F1050" t="inlineStr"/>
+      <c r="G1050" t="n">
+        <v>1129025</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1050" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1050" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1050" t="inlineStr"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>797</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>868.9500122070312</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>790</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>832.4500122070312</v>
+      </c>
+      <c r="F1051" t="inlineStr"/>
+      <c r="G1051" t="n">
+        <v>2010227</v>
+      </c>
+      <c r="H1051" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1051" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1051" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1051" t="inlineStr"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>840</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>867.9500122070312</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>790.1500244140625</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>797.2999877929688</v>
+      </c>
+      <c r="F1052" t="inlineStr"/>
+      <c r="G1052" t="n">
+        <v>1766161</v>
+      </c>
+      <c r="H1052" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1052" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1052" t="inlineStr"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>810</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>812.7000122070312</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>757.4500122070312</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>774.5499877929688</v>
+      </c>
+      <c r="F1053" t="inlineStr"/>
+      <c r="G1053" t="n">
+        <v>795996</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1053" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1053" t="inlineStr"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>774.5499877929688</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>795.9500122070312</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>747.0999755859375</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>788.4500122070312</v>
+      </c>
+      <c r="F1054" t="inlineStr"/>
+      <c r="G1054" t="n">
+        <v>564379</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1054" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1054" t="inlineStr"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>789</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>793.9000244140625</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>755</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>756.7999877929688</v>
+      </c>
+      <c r="F1055" t="inlineStr"/>
+      <c r="G1055" t="n">
+        <v>711162</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1055" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1055" t="inlineStr"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>749.9000244140625</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>778.8499755859375</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>720.4500122070312</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>775.6500244140625</v>
+      </c>
+      <c r="F1056" t="inlineStr"/>
+      <c r="G1056" t="n">
+        <v>886783</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1056" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1056" t="inlineStr"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>781.7000122070312</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>789.9500122070312</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>730.5499877929688</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>736.5</v>
+      </c>
+      <c r="F1057" t="inlineStr"/>
+      <c r="G1057" t="n">
+        <v>863945</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1057" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1057" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1057" t="inlineStr"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>736.5</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>745.9500122070312</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>669</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>742.7000122070312</v>
+      </c>
+      <c r="F1058" t="inlineStr"/>
+      <c r="G1058" t="n">
+        <v>726743</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1058" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1058" t="inlineStr"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>701</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>750</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>683.25</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>732.4500122070312</v>
+      </c>
+      <c r="F1059" t="inlineStr"/>
+      <c r="G1059" t="n">
+        <v>1477585</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1059" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1059" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1059" t="inlineStr"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>734.9000244140625</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>734.9000244140625</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>616</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>626.0999755859375</v>
+      </c>
+      <c r="F1060" t="inlineStr"/>
+      <c r="G1060" t="n">
+        <v>1275525</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1060" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1060" t="inlineStr"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>625</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>642</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>597</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>606.7999877929688</v>
+      </c>
+      <c r="F1061" t="inlineStr"/>
+      <c r="G1061" t="n">
+        <v>1074173</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1061" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1061" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1061" t="inlineStr"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>606</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>620</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>595</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>607.0999755859375</v>
+      </c>
+      <c r="F1062" t="inlineStr"/>
+      <c r="G1062" t="n">
+        <v>570181</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1062" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1062" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1062" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ASTRAMICRO.NS.xlsx
+++ b/stock_historical_data/1wk/ASTRAMICRO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1062"/>
+  <dimension ref="A1:R1071"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58035,7 +58035,9 @@
       <c r="Q1028" t="n">
         <v>0</v>
       </c>
-      <c r="R1028" t="inlineStr"/>
+      <c r="R1028" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1029">
       <c r="A1029" s="2" t="n">
@@ -58087,7 +58089,9 @@
       <c r="Q1029" t="n">
         <v>0</v>
       </c>
-      <c r="R1029" t="inlineStr"/>
+      <c r="R1029" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1030">
       <c r="A1030" s="2" t="n">
@@ -58139,7 +58143,9 @@
       <c r="Q1030" t="n">
         <v>0</v>
       </c>
-      <c r="R1030" t="inlineStr"/>
+      <c r="R1030" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1031">
       <c r="A1031" s="2" t="n">
@@ -58191,7 +58197,9 @@
       <c r="Q1031" t="n">
         <v>0</v>
       </c>
-      <c r="R1031" t="inlineStr"/>
+      <c r="R1031" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1032">
       <c r="A1032" s="2" t="n">
@@ -58243,7 +58251,9 @@
       <c r="Q1032" t="n">
         <v>2</v>
       </c>
-      <c r="R1032" t="inlineStr"/>
+      <c r="R1032" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1033">
       <c r="A1033" s="2" t="n">
@@ -58295,7 +58305,9 @@
       <c r="Q1033" t="n">
         <v>0</v>
       </c>
-      <c r="R1033" t="inlineStr"/>
+      <c r="R1033" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1034">
       <c r="A1034" s="2" t="n">
@@ -58347,7 +58359,9 @@
       <c r="Q1034" t="n">
         <v>0</v>
       </c>
-      <c r="R1034" t="inlineStr"/>
+      <c r="R1034" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
@@ -58399,7 +58413,9 @@
       <c r="Q1035" t="n">
         <v>0</v>
       </c>
-      <c r="R1035" t="inlineStr"/>
+      <c r="R1035" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
@@ -58451,7 +58467,9 @@
       <c r="Q1036" t="n">
         <v>0</v>
       </c>
-      <c r="R1036" t="inlineStr"/>
+      <c r="R1036" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1037">
       <c r="A1037" s="2" t="n">
@@ -58503,7 +58521,9 @@
       <c r="Q1037" t="n">
         <v>0</v>
       </c>
-      <c r="R1037" t="inlineStr"/>
+      <c r="R1037" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1038">
       <c r="A1038" s="2" t="n">
@@ -58555,7 +58575,9 @@
       <c r="Q1038" t="n">
         <v>0</v>
       </c>
-      <c r="R1038" t="inlineStr"/>
+      <c r="R1038" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1039">
       <c r="A1039" s="2" t="n">
@@ -58607,7 +58629,9 @@
       <c r="Q1039" t="n">
         <v>0</v>
       </c>
-      <c r="R1039" t="inlineStr"/>
+      <c r="R1039" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1040">
       <c r="A1040" s="2" t="n">
@@ -58659,7 +58683,9 @@
       <c r="Q1040" t="n">
         <v>1</v>
       </c>
-      <c r="R1040" t="inlineStr"/>
+      <c r="R1040" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1041">
       <c r="A1041" s="2" t="n">
@@ -58711,7 +58737,9 @@
       <c r="Q1041" t="n">
         <v>0</v>
       </c>
-      <c r="R1041" t="inlineStr"/>
+      <c r="R1041" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1042">
       <c r="A1042" s="2" t="n">
@@ -58763,7 +58791,9 @@
       <c r="Q1042" t="n">
         <v>0</v>
       </c>
-      <c r="R1042" t="inlineStr"/>
+      <c r="R1042" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1043">
       <c r="A1043" s="2" t="n">
@@ -58815,7 +58845,9 @@
       <c r="Q1043" t="n">
         <v>0</v>
       </c>
-      <c r="R1043" t="inlineStr"/>
+      <c r="R1043" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1044">
       <c r="A1044" s="2" t="n">
@@ -58867,7 +58899,9 @@
       <c r="Q1044" t="n">
         <v>2</v>
       </c>
-      <c r="R1044" t="inlineStr"/>
+      <c r="R1044" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1045">
       <c r="A1045" s="2" t="n">
@@ -58919,7 +58953,9 @@
       <c r="Q1045" t="n">
         <v>0</v>
       </c>
-      <c r="R1045" t="inlineStr"/>
+      <c r="R1045" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1046">
       <c r="A1046" s="2" t="n">
@@ -58971,7 +59007,9 @@
       <c r="Q1046" t="n">
         <v>0</v>
       </c>
-      <c r="R1046" t="inlineStr"/>
+      <c r="R1046" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1047">
       <c r="A1047" s="2" t="n">
@@ -59023,7 +59061,9 @@
       <c r="Q1047" t="n">
         <v>0</v>
       </c>
-      <c r="R1047" t="inlineStr"/>
+      <c r="R1047" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1048">
       <c r="A1048" s="2" t="n">
@@ -59075,7 +59115,9 @@
       <c r="Q1048" t="n">
         <v>0</v>
       </c>
-      <c r="R1048" t="inlineStr"/>
+      <c r="R1048" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1049">
       <c r="A1049" s="2" t="n">
@@ -59127,7 +59169,9 @@
       <c r="Q1049" t="n">
         <v>0</v>
       </c>
-      <c r="R1049" t="inlineStr"/>
+      <c r="R1049" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1050">
       <c r="A1050" s="2" t="n">
@@ -59179,7 +59223,9 @@
       <c r="Q1050" t="n">
         <v>1</v>
       </c>
-      <c r="R1050" t="inlineStr"/>
+      <c r="R1050" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1051">
       <c r="A1051" s="2" t="n">
@@ -59231,7 +59277,9 @@
       <c r="Q1051" t="n">
         <v>0</v>
       </c>
-      <c r="R1051" t="inlineStr"/>
+      <c r="R1051" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1052">
       <c r="A1052" s="2" t="n">
@@ -59283,7 +59331,9 @@
       <c r="Q1052" t="n">
         <v>0</v>
       </c>
-      <c r="R1052" t="inlineStr"/>
+      <c r="R1052" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1053">
       <c r="A1053" s="2" t="n">
@@ -59335,7 +59385,9 @@
       <c r="Q1053" t="n">
         <v>0</v>
       </c>
-      <c r="R1053" t="inlineStr"/>
+      <c r="R1053" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1054">
       <c r="A1054" s="2" t="n">
@@ -59387,7 +59439,9 @@
       <c r="Q1054" t="n">
         <v>0</v>
       </c>
-      <c r="R1054" t="inlineStr"/>
+      <c r="R1054" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1055">
       <c r="A1055" s="2" t="n">
@@ -59439,7 +59493,9 @@
       <c r="Q1055" t="n">
         <v>0</v>
       </c>
-      <c r="R1055" t="inlineStr"/>
+      <c r="R1055" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1056">
       <c r="A1056" s="2" t="n">
@@ -59491,7 +59547,9 @@
       <c r="Q1056" t="n">
         <v>0</v>
       </c>
-      <c r="R1056" t="inlineStr"/>
+      <c r="R1056" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1057">
       <c r="A1057" s="2" t="n">
@@ -59543,7 +59601,9 @@
       <c r="Q1057" t="n">
         <v>2</v>
       </c>
-      <c r="R1057" t="inlineStr"/>
+      <c r="R1057" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1058">
       <c r="A1058" s="2" t="n">
@@ -59595,7 +59655,9 @@
       <c r="Q1058" t="n">
         <v>0</v>
       </c>
-      <c r="R1058" t="inlineStr"/>
+      <c r="R1058" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1059">
       <c r="A1059" s="2" t="n">
@@ -59647,7 +59709,9 @@
       <c r="Q1059" t="n">
         <v>0</v>
       </c>
-      <c r="R1059" t="inlineStr"/>
+      <c r="R1059" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1060">
       <c r="A1060" s="2" t="n">
@@ -59699,7 +59763,9 @@
       <c r="Q1060" t="n">
         <v>0</v>
       </c>
-      <c r="R1060" t="inlineStr"/>
+      <c r="R1060" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1061">
       <c r="A1061" s="2" t="n">
@@ -59751,7 +59817,9 @@
       <c r="Q1061" t="n">
         <v>0</v>
       </c>
-      <c r="R1061" t="inlineStr"/>
+      <c r="R1061" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1062">
       <c r="A1062" s="2" t="n">
@@ -59803,7 +59871,477 @@
       <c r="Q1062" t="n">
         <v>0</v>
       </c>
-      <c r="R1062" t="inlineStr"/>
+      <c r="R1062" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>607.0499877929688</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>658.75</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>584.2000122070312</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>651.5499877929688</v>
+      </c>
+      <c r="F1063" t="inlineStr"/>
+      <c r="G1063" t="n">
+        <v>1505176</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1063" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1063" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1063" t="inlineStr"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>654</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>659.9000244140625</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>615.3499755859375</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>623.0999755859375</v>
+      </c>
+      <c r="F1064" t="inlineStr"/>
+      <c r="G1064" t="n">
+        <v>734652</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1064" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1064" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1064" t="inlineStr"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>630</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>709.9500122070312</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>615.0999755859375</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>706.7000122070312</v>
+      </c>
+      <c r="F1065" t="inlineStr"/>
+      <c r="G1065" t="n">
+        <v>1226629</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1065" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1065" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1065" t="inlineStr"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>713.7999877929688</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>729.75</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>660</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>672.3499755859375</v>
+      </c>
+      <c r="F1066" t="inlineStr"/>
+      <c r="G1066" t="n">
+        <v>1549731</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1066" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1066" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1066" t="inlineStr"/>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>672.3499755859375</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>703.9000244140625</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>668</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>676.7999877929688</v>
+      </c>
+      <c r="F1067" t="inlineStr"/>
+      <c r="G1067" t="n">
+        <v>664047</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1067" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1067" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1067" t="inlineStr"/>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>640</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>725.2000122070312</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>631</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>723</v>
+      </c>
+      <c r="F1068" t="inlineStr"/>
+      <c r="G1068" t="n">
+        <v>941841</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1068" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1068" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1068" t="inlineStr"/>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>723</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>769</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>723</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>767.4000244140625</v>
+      </c>
+      <c r="F1069" t="inlineStr"/>
+      <c r="G1069" t="n">
+        <v>1867128</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1069" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1069" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1069" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1069" t="inlineStr"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>771</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>835.9500122070312</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>769.6500244140625</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>786.2000122070312</v>
+      </c>
+      <c r="F1070" t="inlineStr"/>
+      <c r="G1070" t="n">
+        <v>1586220</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1070" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1070" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1070" t="inlineStr"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>780</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>862</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>777</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>828.6500244140625</v>
+      </c>
+      <c r="F1071" t="inlineStr"/>
+      <c r="G1071" t="n">
+        <v>1855655</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1071" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1071" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1071" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
